--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject34.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject34.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -167,13 +167,13 @@
         <v>0</v>
       </c>
       <c r="N1" s="0">
-        <v>0</v>
+        <v>0.78571172454479932</v>
       </c>
       <c r="O1" s="0">
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>0</v>
+        <v>0.96385672892531715</v>
       </c>
       <c r="Q1" s="0">
         <v>0</v>
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="AE1" s="0">
-        <v>0</v>
+        <v>0.72466545361286694</v>
       </c>
       <c r="AF1" s="0">
         <v>0</v>
@@ -227,7 +227,7 @@
         <v>0</v>
       </c>
       <c r="AH1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1" s="0">
         <v>0</v>
@@ -242,7 +242,7 @@
         <v>0</v>
       </c>
       <c r="AM1" s="0">
-        <v>0</v>
+        <v>0.96068910821110198</v>
       </c>
       <c r="AN1" s="0">
         <v>0</v>
@@ -260,7 +260,7 @@
         <v>0</v>
       </c>
       <c r="AS1" s="0">
-        <v>1</v>
+        <v>0.5978945032794597</v>
       </c>
       <c r="AT1" s="0">
         <v>0</v>
@@ -284,7 +284,7 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0</v>
+        <v>0.68391871291546602</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -305,7 +305,7 @@
         <v>0</v>
       </c>
       <c r="BH1" s="0">
-        <v>0</v>
+        <v>0.51490215111511395</v>
       </c>
       <c r="BI1" s="0">
         <v>0</v>
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.56575676129801711</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -385,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="0">
-        <v>0</v>
+        <v>0.63555050351967968</v>
       </c>
       <c r="S2" s="0">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="BE2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="0">
         <v>0</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="BO2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -543,16 +543,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.53767257979653571</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.8195362569405753</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0</v>
+        <v>0.87722219374195021</v>
       </c>
       <c r="L3" s="0">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="AV3" s="0">
-        <v>0</v>
+        <v>0.98514446192965788</v>
       </c>
       <c r="AW3" s="0">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.97142221622999525</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="0">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="AO4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="0">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="AW4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="0">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="BA4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="0">
-        <v>0</v>
+        <v>0.51664536969786323</v>
       </c>
       <c r="BC4" s="0">
-        <v>0</v>
+        <v>0.75937613371664514</v>
       </c>
       <c r="BD4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.95048451520399491</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="0">
-        <v>0</v>
+        <v>0.94861598073496811</v>
       </c>
       <c r="U5" s="0">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="0">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="0">
-        <v>0</v>
+        <v>0.58671819244863876</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="0">
-        <v>0</v>
+        <v>0.7601384807545668</v>
       </c>
       <c r="AH5" s="0">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="0">
-        <v>0</v>
+        <v>0.59315807431610779</v>
       </c>
       <c r="AK5" s="0">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>0</v>
+        <v>0.71390938507269364</v>
       </c>
       <c r="BH5" s="0">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="0">
-        <v>0</v>
+        <v>0.85966327499164885</v>
       </c>
       <c r="BO5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.76950359361121845</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>0</v>
+        <v>0.71908568535487394</v>
       </c>
       <c r="N6" s="0">
-        <v>0</v>
+        <v>0.92985328580637683</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="0">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="0">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="0">
-        <v>0</v>
+        <v>0.55438150780159334</v>
       </c>
       <c r="BA6" s="0">
         <v>0</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="BD6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="0">
         <v>0</v>
       </c>
       <c r="BF6" s="0">
-        <v>0</v>
+        <v>0.94110709683748683</v>
       </c>
       <c r="BG6" s="0">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="BM6" s="0">
-        <v>0</v>
+        <v>0.64180679413869646</v>
       </c>
       <c r="BN6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.75447229814411632</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.59036031133660005</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="0">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="0">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="0">
-        <v>0</v>
+        <v>0.97883646887703357</v>
       </c>
       <c r="BK7" s="0">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.79741849922390107</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>1</v>
+        <v>0.79522877697054528</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1633,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="V8" s="0">
-        <v>0</v>
+        <v>0.78573803592635993</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
       </c>
       <c r="X8" s="0">
-        <v>0</v>
+        <v>0.78640800652118759</v>
       </c>
       <c r="Y8" s="0">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>0</v>
+        <v>0.80527440150274576</v>
       </c>
       <c r="AI8" s="0">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AY8" s="0">
-        <v>0</v>
+        <v>0.75691477251754935</v>
       </c>
       <c r="AZ8" s="0">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="0">
-        <v>0</v>
+        <v>0.61284086704274632</v>
       </c>
       <c r="BG8" s="0">
         <v>0</v>
@@ -1794,16 +1794,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.88270413809528392</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.83220622889653018</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="0">
-        <v>0</v>
+        <v>0.57000218699775407</v>
       </c>
       <c r="BC9" s="0">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="BN9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9" s="0">
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.7182654376989599</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0</v>
+        <v>0.93798098194412582</v>
       </c>
       <c r="R10" s="0">
         <v>0</v>
       </c>
       <c r="S10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="0">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="0">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>0</v>
+        <v>0.54537574605926431</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>0</v>
+        <v>0.94823891547563566</v>
       </c>
       <c r="BM10" s="0">
-        <v>0</v>
+        <v>0.63515091259082102</v>
       </c>
       <c r="BN10" s="0">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>0</v>
+        <v>0.75475534199342909</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.97467254015988769</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="AD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="0">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="0">
-        <v>0</v>
+        <v>0.60671277793878575</v>
       </c>
       <c r="AQ11" s="0">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>0</v>
+        <v>0.64348524686320951</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AT12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="0">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AY12" s="0">
-        <v>1</v>
+        <v>0.80690419510379974</v>
       </c>
       <c r="AZ12" s="0">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="0">
-        <v>0</v>
+        <v>0.58138555770465805</v>
       </c>
       <c r="BG12" s="0">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>0</v>
+        <v>0.73208289157378226</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.77370615157670786</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.6223406644200189</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>0</v>
+        <v>0.70712150698521792</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="0">
-        <v>0</v>
+        <v>0.92983826492713362</v>
       </c>
       <c r="AB13" s="0">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="0">
         <v>0</v>
@@ -2750,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="AY13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="0">
         <v>0</v>
       </c>
       <c r="BA13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="0">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="0">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0</v>
+        <v>0.99774287177586318</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>0</v>
+        <v>0.98233202750177662</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.958128143186181</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AU14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="0">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="BD14" s="0">
-        <v>0</v>
+        <v>0.63685923726533367</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.7703645941013757</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.97728014087029158</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0</v>
+        <v>0.92044758865980114</v>
       </c>
       <c r="AO15" s="0">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="0">
-        <v>0</v>
+        <v>0.75583789786479794</v>
       </c>
       <c r="BB15" s="0">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="0">
-        <v>1</v>
+        <v>0.57388680391561209</v>
       </c>
       <c r="BG15" s="0">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15" s="0">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0</v>
+        <v>0.67552870053875202</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>0.58115256058843301</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="0">
-        <v>0</v>
+        <v>0.89238922716255398</v>
       </c>
       <c r="Z16" s="0">
         <v>0</v>
@@ -3302,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="0">
         <v>0</v>
       </c>
       <c r="AE16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="0">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="0">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>0</v>
+        <v>0.92430571127730199</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>0</v>
+        <v>0.8722151375487186</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
@@ -3460,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>0</v>
+        <v>0.5085778023316978</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="0">
         <v>0</v>
@@ -3598,16 +3598,16 @@
         <v>0</v>
       </c>
       <c r="BG17" s="0">
-        <v>0</v>
+        <v>0.77950468875794932</v>
       </c>
       <c r="BH17" s="0">
-        <v>0</v>
+        <v>0.89910006589563829</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
       </c>
       <c r="BJ17" s="0">
-        <v>1</v>
+        <v>0.92417314732759359</v>
       </c>
       <c r="BK17" s="0">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="BO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17" s="0">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
+        <v>0.78980376508444539</v>
       </c>
       <c r="C18" s="0">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="0">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="0">
-        <v>0</v>
+        <v>0.74488176385418114</v>
       </c>
       <c r="AG18" s="0">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>0</v>
+        <v>0.7937810343788021</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="0">
-        <v>0</v>
+        <v>0.52396435557346421</v>
       </c>
       <c r="BG18" s="0">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="BP18" s="0">
-        <v>0</v>
+        <v>0.99605495968521096</v>
       </c>
     </row>
     <row r="19">
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3902,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="0">
-        <v>0</v>
+        <v>0.61316982098857242</v>
       </c>
       <c r="Y19" s="0">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>0</v>
+        <v>0.51072465757574348</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AT19" s="0">
-        <v>0</v>
+        <v>0.62139590114698318</v>
       </c>
       <c r="AU19" s="0">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AW19" s="0">
-        <v>0</v>
+        <v>0.80690309454635933</v>
       </c>
       <c r="AX19" s="0">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0</v>
+        <v>0.64000041723562684</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="0">
-        <v>0</v>
+        <v>0.91918796101522493</v>
       </c>
       <c r="F20" s="0">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="0">
         <v>0</v>
@@ -4165,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="AP20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="0">
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>0</v>
+        <v>0.95888815536747418</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="BB20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="0">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK20" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.73478390229789592</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4371,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="0">
-        <v>0</v>
+        <v>0.81582718866379023</v>
       </c>
       <c r="AR21" s="0">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="0">
-        <v>0</v>
+        <v>0.75070999539232952</v>
       </c>
       <c r="I22" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.83708483823233193</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0</v>
+        <v>0.94638445748490574</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0">
-        <v>0</v>
+        <v>0.93733477878443816</v>
       </c>
       <c r="AR22" s="0">
         <v>0</v>
@@ -4613,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="BB22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>0</v>
+        <v>0.73977375675113111</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="0">
-        <v>0</v>
+        <v>0.58246200999440934</v>
       </c>
       <c r="AF23" s="0">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>0</v>
+        <v>0.8825044472838095</v>
       </c>
       <c r="AO23" s="0">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="BO23" s="0">
-        <v>0</v>
+        <v>0.84820380301466347</v>
       </c>
       <c r="BP23" s="0">
         <v>0</v>
@@ -4887,13 +4887,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="0">
-        <v>0</v>
+        <v>0.60583356689574952</v>
       </c>
       <c r="I24" s="0">
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="0">
-        <v>0</v>
+        <v>0.51741461505532704</v>
       </c>
       <c r="T24" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="0">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="0">
-        <v>0</v>
+        <v>0.8260614173235159</v>
       </c>
       <c r="AQ24" s="0">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>0</v>
+        <v>0.5309553689969071</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="BI24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ24" s="0">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="0">
-        <v>0</v>
+        <v>0.94390154073331634</v>
       </c>
       <c r="Q25" s="0">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="0">
-        <v>0</v>
+        <v>0.52950962421973657</v>
       </c>
       <c r="AE25" s="0">
         <v>0</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="0">
-        <v>0</v>
+        <v>0.90254355833815869</v>
       </c>
       <c r="AL25" s="0">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="0">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="BI25" s="0">
-        <v>0</v>
+        <v>0.57832589719687388</v>
       </c>
       <c r="BJ25" s="0">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>0</v>
+        <v>0.9303190064000123</v>
       </c>
       <c r="M26" s="0">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="0">
         <v>0</v>
@@ -5413,13 +5413,13 @@
         <v>0</v>
       </c>
       <c r="AT26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="0">
         <v>0</v>
       </c>
       <c r="AV26" s="0">
-        <v>0</v>
+        <v>0.92023586126410595</v>
       </c>
       <c r="AW26" s="0">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="0">
-        <v>0</v>
+        <v>0.51454038705067351</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="0">
-        <v>0</v>
+        <v>0.98412462230862774</v>
       </c>
       <c r="AG27" s="0">
         <v>0</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="AV27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="0">
         <v>0</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="BH27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI27" s="0">
         <v>0</v>
@@ -5702,13 +5702,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="0">
-        <v>0</v>
+        <v>0.62879884312999501</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5783,13 +5783,13 @@
         <v>0</v>
       </c>
       <c r="AF28" s="0">
-        <v>0</v>
+        <v>0.79778178637417907</v>
       </c>
       <c r="AG28" s="0">
         <v>0</v>
       </c>
       <c r="AH28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="0">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="BL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM28" s="0">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="0">
         <v>0</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="AV29" s="0">
-        <v>1</v>
+        <v>0.89947881140966857</v>
       </c>
       <c r="AW29" s="0">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="BM29" s="0">
-        <v>0</v>
+        <v>0.71159835382057979</v>
       </c>
       <c r="BN29" s="0">
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="0">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="0">
-        <v>0</v>
+        <v>0.80308171052958943</v>
       </c>
       <c r="Z30" s="0">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="0">
-        <v>1</v>
+        <v>0.58450656025516645</v>
       </c>
       <c r="AX30" s="0">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="0">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="0">
-        <v>1</v>
+        <v>0.74108554864288112</v>
       </c>
       <c r="BE30" s="0">
         <v>0</v>
@@ -6282,13 +6282,13 @@
         <v>0</v>
       </c>
       <c r="BI30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ30" s="0">
         <v>0</v>
       </c>
       <c r="BK30" s="0">
-        <v>0</v>
+        <v>0.619611408170617</v>
       </c>
       <c r="BL30" s="0">
         <v>0</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0</v>
+        <v>0.78149759299706623</v>
       </c>
       <c r="B31" s="0">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="0">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>0</v>
+        <v>0.54838220055919962</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>0</v>
+        <v>0.5020825701097531</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6476,10 +6476,10 @@
         <v>0</v>
       </c>
       <c r="BE31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="BM31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN31" s="0">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="0">
         <v>0</v>
@@ -6562,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0</v>
+        <v>0.65753743563635747</v>
       </c>
       <c r="R32" s="0">
-        <v>0</v>
+        <v>0.8182551799244564</v>
       </c>
       <c r="S32" s="0">
         <v>0</v>
@@ -6592,10 +6592,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="0">
-        <v>0</v>
+        <v>0.62478498218152456</v>
       </c>
       <c r="AB32" s="0">
-        <v>0</v>
+        <v>0.76066072619225344</v>
       </c>
       <c r="AC32" s="0">
         <v>0</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="0">
-        <v>0</v>
+        <v>0.9719353046757685</v>
       </c>
       <c r="AM32" s="0">
         <v>0</v>
@@ -6697,13 +6697,13 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>0</v>
+        <v>0.57723371380723376</v>
       </c>
       <c r="BK32" s="0">
         <v>0</v>
       </c>
       <c r="BL32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM32" s="0">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="BO32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP32" s="0">
         <v>0</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="0">
-        <v>0</v>
+        <v>0.8205163617302289</v>
       </c>
       <c r="F33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.9915976333269525</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="BD33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE33" s="0">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="BG33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH33" s="0">
         <v>0</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>0</v>
+        <v>0.76336961330318764</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="0">
         <v>0</v>
@@ -7022,16 +7022,16 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.99998777157364493</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.99407903251580798</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>0</v>
+        <v>0.79384018912767429</v>
       </c>
       <c r="AX34" s="0">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="BH34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI34" s="0">
         <v>0</v>
@@ -7231,13 +7231,13 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.88848989972411352</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.88346942344725377</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AT35" s="0">
-        <v>1</v>
+        <v>0.91542675872723334</v>
       </c>
       <c r="AU35" s="0">
         <v>0</v>
@@ -7279,13 +7279,13 @@
         <v>0</v>
       </c>
       <c r="AX35" s="0">
-        <v>0</v>
+        <v>0.93309323137476907</v>
       </c>
       <c r="AY35" s="0">
         <v>0</v>
       </c>
       <c r="AZ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="0">
-        <v>0</v>
+        <v>0.82145718259365763</v>
       </c>
       <c r="F36" s="0">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="0">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
@@ -7437,16 +7437,16 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.50963702923831544</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.85330699486957395</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>0</v>
+        <v>0.72392788553439158</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="BL36" s="0">
-        <v>0</v>
+        <v>0.85225154005240089</v>
       </c>
       <c r="BM36" s="0">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="BP36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="0">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="0">
         <v>0</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="0">
-        <v>0</v>
+        <v>0.63233203804917171</v>
       </c>
       <c r="Z37" s="0">
         <v>0</v>
@@ -7649,13 +7649,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.98792455072263108</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>0</v>
+        <v>0.6373519204493624</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="AW37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX37" s="0">
         <v>0</v>
@@ -7727,10 +7727,10 @@
         <v>0</v>
       </c>
       <c r="BJ37" s="0">
-        <v>0</v>
+        <v>0.95775720659787478</v>
       </c>
       <c r="BK37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL37" s="0">
         <v>0</v>
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="0">
         <v>0</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="0">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="0">
-        <v>0</v>
+        <v>0.6501372466051335</v>
       </c>
       <c r="AG38" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX38" s="0">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>0</v>
+        <v>0.58549294378360017</v>
       </c>
       <c r="BB38" s="0">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="BD38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE38" s="0">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="BO38" s="0">
-        <v>0</v>
+        <v>0.50905067020261741</v>
       </c>
       <c r="BP38" s="0">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0</v>
+        <v>0.71043727825735403</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0</v>
+        <v>0.56074578390607643</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
-        <v>0</v>
+        <v>0.70852968907540326</v>
       </c>
       <c r="AQ39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="0">
         <v>0</v>
@@ -8204,10 +8204,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>0</v>
+        <v>0.64604421179630855</v>
       </c>
       <c r="P40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="0">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>0</v>
+        <v>0.5156370788224407</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.69875504590098636</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="BB40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC40" s="0">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>0</v>
+        <v>0.57284651316251733</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.50160231154533963</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.85035145218802799</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="0">
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="0">
-        <v>0</v>
+        <v>0.54885456726224735</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="0">
         <v>0</v>
@@ -8631,10 +8631,10 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0">
-        <v>0</v>
+        <v>0.52045292522092323</v>
       </c>
       <c r="Y42" s="0">
         <v>0</v>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="AM42" s="0">
-        <v>0</v>
+        <v>0.89326985166844963</v>
       </c>
       <c r="AN42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8721,13 +8721,13 @@
         <v>0</v>
       </c>
       <c r="AX42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="0">
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>0</v>
+        <v>0.67426702094752111</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>0</v>
+        <v>0.58181093879475831</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="0">
         <v>0</v>
@@ -8840,10 +8840,10 @@
         <v>0</v>
       </c>
       <c r="U43" s="0">
-        <v>0</v>
+        <v>0.5290032638527955</v>
       </c>
       <c r="V43" s="0">
-        <v>0</v>
+        <v>0.93224072511270439</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.87451091897943301</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.67479400710353143</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8954,10 +8954,10 @@
         <v>0</v>
       </c>
       <c r="BG43" s="0">
-        <v>0</v>
+        <v>0.82909666247012359</v>
       </c>
       <c r="BH43" s="0">
-        <v>0</v>
+        <v>0.7666947109930502</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="BN43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO43" s="0">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>0</v>
+        <v>0.97509081498468886</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9118,13 +9118,13 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
       </c>
       <c r="AU44" s="0">
-        <v>0</v>
+        <v>0.75131260659133203</v>
       </c>
       <c r="AV44" s="0">
         <v>0</v>
@@ -9142,19 +9142,19 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="0">
-        <v>0</v>
+        <v>0.96988982476813457</v>
       </c>
       <c r="BC44" s="0">
-        <v>0</v>
+        <v>0.78521980153508997</v>
       </c>
       <c r="BD44" s="0">
         <v>0</v>
       </c>
       <c r="BE44" s="0">
-        <v>0</v>
+        <v>0.784323115872676</v>
       </c>
       <c r="BF44" s="0">
         <v>0</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>1</v>
+        <v>0.6250991280453515</v>
       </c>
       <c r="B45" s="0">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>0</v>
+        <v>0.51124410308108237</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.99356852774873561</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.72533283100443391</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="0">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0">
-        <v>0</v>
+        <v>0.54732805386166894</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="0">
         <v>0</v>
@@ -9500,13 +9500,13 @@
         <v>0</v>
       </c>
       <c r="AI46" s="0">
-        <v>1</v>
+        <v>0.72638925263387444</v>
       </c>
       <c r="AJ46" s="0">
         <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>0</v>
+        <v>0.70269241210194844</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>0</v>
+        <v>0.51507145113036279</v>
       </c>
     </row>
     <row r="47">
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>0</v>
+        <v>0.60504511477802803</v>
       </c>
       <c r="K47" s="0">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="0">
         <v>0</v>
@@ -9733,10 +9733,10 @@
         <v>0</v>
       </c>
       <c r="AR47" s="0">
-        <v>0</v>
+        <v>0.75041991543721287</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.57460575063990027</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9772,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="BE47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF47" s="0">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BI47" s="0">
-        <v>0</v>
+        <v>0.78962840134932755</v>
       </c>
       <c r="BJ47" s="0">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="BO47" s="0">
-        <v>0</v>
+        <v>0.9374014255449441</v>
       </c>
       <c r="BP47" s="0">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="0">
-        <v>0</v>
+        <v>0.71221871048447305</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -9885,16 +9885,16 @@
         <v>0</v>
       </c>
       <c r="Z48" s="0">
-        <v>0</v>
+        <v>0.89206322541931904</v>
       </c>
       <c r="AA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="0">
         <v>0</v>
       </c>
       <c r="AC48" s="0">
-        <v>1</v>
+        <v>0.59571948779102835</v>
       </c>
       <c r="AD48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.71103378966674757</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="AZ48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="0">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="BC48" s="0">
-        <v>0</v>
+        <v>0.51857909487101128</v>
       </c>
       <c r="BD48" s="0">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0">
-        <v>0</v>
+        <v>0.80850721547919391</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="0">
-        <v>1</v>
+        <v>0.73145654329879628</v>
       </c>
       <c r="AE49" s="0">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="AH49" s="0">
-        <v>0</v>
+        <v>0.89444833065814389</v>
       </c>
       <c r="AI49" s="0">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="AK49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.89253448130519386</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="BP49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="0">
-        <v>0</v>
+        <v>0.61810630442279113</v>
       </c>
       <c r="AF50" s="0">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="0">
-        <v>0</v>
+        <v>0.89133978035839712</v>
       </c>
       <c r="AJ50" s="0">
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="AP50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.8730918441090616</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10408,10 +10408,10 @@
         <v>0</v>
       </c>
       <c r="BK50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM50" s="0">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>0</v>
+        <v>0.74618113834317867</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -10461,10 +10461,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>1</v>
+        <v>0.59408066880310506</v>
       </c>
       <c r="M51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="0">
         <v>0</v>
@@ -10575,13 +10575,13 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.83294068010494171</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.99219006025992385</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10590,13 +10590,13 @@
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
       </c>
       <c r="BE51" s="0">
-        <v>0</v>
+        <v>0.58955563333411709</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="BM51" s="0">
-        <v>0</v>
+        <v>0.84974314965663056</v>
       </c>
       <c r="BN51" s="0">
         <v>0</v>
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="0">
-        <v>0</v>
+        <v>0.94596192427251369</v>
       </c>
       <c r="G52" s="0">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="0">
         <v>0</v>
@@ -10754,10 +10754,10 @@
         <v>0</v>
       </c>
       <c r="AO52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP52" s="0">
-        <v>0</v>
+        <v>0.92434739867638793</v>
       </c>
       <c r="AQ52" s="0">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="AV52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW52" s="0">
         <v>0</v>
@@ -10784,19 +10784,19 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.84047281634614324</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0</v>
+        <v>0.70848719441461838</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
       </c>
       <c r="BC52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD52" s="0">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -10876,13 +10876,13 @@
         <v>0</v>
       </c>
       <c r="M53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="0">
-        <v>0</v>
+        <v>0.64736584646428663</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="0">
         <v>0</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="0">
         <v>0</v>
@@ -10945,13 +10945,13 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="0">
-        <v>0</v>
+        <v>0.72645524838013409</v>
       </c>
       <c r="AK53" s="0">
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>0</v>
+        <v>0.57115080114684003</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="0">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0</v>
+        <v>0.59655751223048648</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11055,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="0">
-        <v>0</v>
+        <v>0.51438679769064355</v>
       </c>
       <c r="E54" s="0">
         <v>0</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="0">
-        <v>0</v>
+        <v>0.88784526113130813</v>
       </c>
       <c r="J54" s="0">
         <v>0</v>
@@ -11103,13 +11103,13 @@
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" s="0">
         <v>0</v>
       </c>
       <c r="V54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" s="0">
         <v>0</v>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="0">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="AR54" s="0">
-        <v>0</v>
+        <v>0.5757802837588103</v>
       </c>
       <c r="AS54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="BP54" s="0">
-        <v>0</v>
+        <v>0.87005074290072515</v>
       </c>
     </row>
     <row r="55">
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="0">
-        <v>0</v>
+        <v>0.50233920678782873</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="0">
-        <v>0</v>
+        <v>0.89524480341571067</v>
       </c>
       <c r="T55" s="0">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="AR55" s="0">
-        <v>0</v>
+        <v>0.72476789428020938</v>
       </c>
       <c r="AS55" s="0">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="AV55" s="0">
-        <v>0</v>
+        <v>0.91249390539674402</v>
       </c>
       <c r="AW55" s="0">
         <v>0</v>
@@ -11402,10 +11402,10 @@
         <v>0</v>
       </c>
       <c r="AY55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0</v>
+        <v>0.7422696315587467</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="0">
         <v>0</v>
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>0</v>
+        <v>0.50006321361683648</v>
       </c>
       <c r="O56" s="0">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="0">
-        <v>1</v>
+        <v>0.53928995063253193</v>
       </c>
       <c r="AE56" s="0">
         <v>0</v>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="AG56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="0">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="0">
         <v>0</v>
@@ -11635,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="BH56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI56" s="0">
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="BK56" s="0">
-        <v>0</v>
+        <v>0.90070589644027521</v>
       </c>
       <c r="BL56" s="0">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="0">
         <v>0</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>0</v>
+        <v>0.76945974809239348</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="0">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="AR57" s="0">
-        <v>0</v>
+        <v>0.76635229769315849</v>
       </c>
       <c r="AS57" s="0">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="AU57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV57" s="0">
         <v>0</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="AY57" s="0">
-        <v>0</v>
+        <v>0.89664452920017523</v>
       </c>
       <c r="AZ57" s="0">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="BN57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO57" s="0">
         <v>0</v>
@@ -11885,13 +11885,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>0</v>
+        <v>0.78942693086417992</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
       </c>
       <c r="H58" s="0">
-        <v>0</v>
+        <v>0.79300179305734853</v>
       </c>
       <c r="I58" s="0">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>0</v>
+        <v>0.54333368451013997</v>
       </c>
       <c r="M58" s="0">
         <v>0</v>
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="0">
-        <v>1</v>
+        <v>0.95999421413890462</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="0">
-        <v>0</v>
+        <v>0.61530980554265446</v>
       </c>
       <c r="S58" s="0">
         <v>0</v>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="BL58" s="0">
-        <v>0</v>
+        <v>0.71393155161574484</v>
       </c>
       <c r="BM58" s="0">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>0</v>
+        <v>0.67998512523542387</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0</v>
+        <v>0.76790696456247742</v>
       </c>
       <c r="R59" s="0">
         <v>0</v>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="AG59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="0">
         <v>0</v>
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="0">
-        <v>0</v>
+        <v>0.55579373047833736</v>
       </c>
       <c r="AR59" s="0">
         <v>0</v>
@@ -12247,13 +12247,13 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0</v>
+        <v>0.56624142796907795</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0</v>
+        <v>0.59320470550479221</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="0">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>0</v>
+        <v>0.94646339736044927</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12441,13 +12441,13 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
       </c>
       <c r="BD60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="BN60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60" s="0">
         <v>0</v>
@@ -12557,10 +12557,10 @@
         <v>0</v>
       </c>
       <c r="X61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="0">
-        <v>0</v>
+        <v>0.66070640279383919</v>
       </c>
       <c r="Z61" s="0">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="0">
         <v>0</v>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="AU61" s="0">
-        <v>0</v>
+        <v>0.98034759600600729</v>
       </c>
       <c r="AV61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.90883256575938054</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0">
-        <v>0</v>
+        <v>0.60488244510875266</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -12742,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>1</v>
+        <v>0.83441831373768816</v>
       </c>
       <c r="R62" s="0">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>0</v>
+        <v>0.82338039990784084</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12802,7 +12802,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="0">
-        <v>0</v>
+        <v>0.675061352757931</v>
       </c>
       <c r="AL62" s="0">
         <v>0</v>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="BM62" s="0">
-        <v>1</v>
+        <v>0.68803583024537063</v>
       </c>
       <c r="BN62" s="0">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" s="0">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>0</v>
+        <v>0.526654265279072</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="AD63" s="0">
-        <v>0</v>
+        <v>0.76902975283424091</v>
       </c>
       <c r="AE63" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="AX63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>0</v>
+        <v>0.61695875917018683</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.84942336352025805</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="BP63" s="0">
-        <v>0</v>
+        <v>0.56282725133307365</v>
       </c>
     </row>
     <row r="64">
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>0</v>
+        <v>0.99821018635139414</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0</v>
+        <v>0.95049451844947686</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13253,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="AX64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="0">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="BF64" s="0">
-        <v>0</v>
+        <v>0.65596445332558173</v>
       </c>
       <c r="BG64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="0">
-        <v>0</v>
+        <v>0.64220077981905788</v>
       </c>
       <c r="G65" s="0">
         <v>0</v>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="0">
-        <v>0</v>
+        <v>0.95993174954725302</v>
       </c>
       <c r="K65" s="0">
         <v>0</v>
@@ -13396,13 +13396,13 @@
         <v>0</v>
       </c>
       <c r="AC65" s="0">
-        <v>0</v>
+        <v>0.88667165187628127</v>
       </c>
       <c r="AD65" s="0">
         <v>0</v>
       </c>
       <c r="AE65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="0">
         <v>0</v>
@@ -13462,10 +13462,10 @@
         <v>0</v>
       </c>
       <c r="AY65" s="0">
-        <v>0</v>
+        <v>0.64346052235130913</v>
       </c>
       <c r="AZ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="0">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="0">
-        <v>1</v>
+        <v>0.74157397208799747</v>
       </c>
       <c r="BK65" s="0">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>0</v>
+        <v>0.71803914042222994</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="0">
         <v>0</v>
@@ -13644,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR66" s="0">
         <v>0</v>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="BE66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF66" s="0">
         <v>0</v>
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="BH66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.70284516341003211</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13727,10 +13727,10 @@
         <v>0</v>
       </c>
       <c r="B67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="0">
         <v>0</v>
@@ -13766,13 +13766,13 @@
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="0">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="W67" s="0">
-        <v>0</v>
+        <v>0.83713709147286897</v>
       </c>
       <c r="X67" s="0">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="0">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="AF67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="0">
         <v>0</v>
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="AL67" s="0">
-        <v>0</v>
+        <v>0.88517397917783014</v>
       </c>
       <c r="AM67" s="0">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>0</v>
+        <v>0.8238832814487701</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="AU67" s="0">
-        <v>0</v>
+        <v>0.91325767744115161</v>
       </c>
       <c r="AV67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.84725256141578942</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="0">
-        <v>0</v>
+        <v>0.6827926805416934</v>
       </c>
       <c r="S68" s="0">
         <v>0</v>
@@ -14032,10 +14032,10 @@
         <v>0</v>
       </c>
       <c r="AI68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK68" s="0">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="AT68" s="0">
-        <v>0</v>
+        <v>0.88698707633450768</v>
       </c>
       <c r="AU68" s="0">
         <v>0</v>
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="AW68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="0">
         <v>0</v>
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="BB68" s="0">
-        <v>0</v>
+        <v>0.51493652420474167</v>
       </c>
       <c r="BC68" s="0">
         <v>0</v>
@@ -14116,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="BK68" s="0">
-        <v>0</v>
+        <v>0.86810090034713638</v>
       </c>
       <c r="BL68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject34.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject34.xlsx
@@ -167,7 +167,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="0">
-        <v>0.78571172454479932</v>
+        <v>0.99774287177586318</v>
       </c>
       <c r="O1" s="0">
         <v>0</v>
@@ -218,7 +218,7 @@
         <v>0</v>
       </c>
       <c r="AE1" s="0">
-        <v>0.72466545361286694</v>
+        <v>0.78149759299706623</v>
       </c>
       <c r="AF1" s="0">
         <v>0</v>
@@ -260,7 +260,7 @@
         <v>0</v>
       </c>
       <c r="AS1" s="0">
-        <v>0.5978945032794597</v>
+        <v>0.6250991280453515</v>
       </c>
       <c r="AT1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0.68391871291546602</v>
+        <v>0.7422696315587467</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -305,7 +305,7 @@
         <v>0</v>
       </c>
       <c r="BH1" s="0">
-        <v>0.51490215111511395</v>
+        <v>0.56624142796907795</v>
       </c>
       <c r="BI1" s="0">
         <v>0</v>
@@ -385,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="0">
-        <v>0.63555050351967968</v>
+        <v>0.78980376508444539</v>
       </c>
       <c r="S2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0.53767257979653571</v>
+        <v>0.56575676129801711</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0.8195362569405753</v>
+        <v>0.95048451520399491</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.58671819244863876</v>
+        <v>0.62879884312999501</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="0">
-        <v>0.7601384807545668</v>
+        <v>0.8205163617302289</v>
       </c>
       <c r="AH5" s="0">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="0">
-        <v>0.59315807431610779</v>
+        <v>0.82145718259365763</v>
       </c>
       <c r="AK5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.76950359361121845</v>
+        <v>0.97142221622999525</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>0.71908568535487394</v>
+        <v>0.73208289157378226</v>
       </c>
       <c r="N6" s="0">
-        <v>0.92985328580637683</v>
+        <v>0.98233202750177662</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="0">
-        <v>0.55438150780159334</v>
+        <v>0.94596192427251369</v>
       </c>
       <c r="BA6" s="0">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="BM6" s="0">
-        <v>0.64180679413869646</v>
+        <v>0.64220077981905788</v>
       </c>
       <c r="BN6" s="0">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.75447229814411632</v>
+        <v>0.79741849922390107</v>
       </c>
       <c r="I7" s="0">
-        <v>0.59036031133660005</v>
+        <v>0.88270413809528392</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="0">
-        <v>0.61284086704274632</v>
+        <v>0.79300179305734853</v>
       </c>
       <c r="BG8" s="0">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="0">
-        <v>0.57000218699775407</v>
+        <v>0.88784526113130813</v>
       </c>
       <c r="BC9" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0.7182654376989599</v>
+        <v>0.83220622889653018</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>0.54537574605926431</v>
+        <v>0.60504511477802803</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>0.94823891547563566</v>
+        <v>0.99821018635139414</v>
       </c>
       <c r="BM10" s="0">
-        <v>0.63515091259082102</v>
+        <v>0.95993174954725302</v>
       </c>
       <c r="BN10" s="0">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>0.75475534199342909</v>
+        <v>0.87722219374195021</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.64348524686320951</v>
+        <v>0.9303190064000123</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.77370615157670786</v>
+        <v>0.97467254015988769</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.6223406644200189</v>
+        <v>0.7703645941013757</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>0.70712150698521792</v>
+        <v>0.73977375675113111</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.958128143186181</v>
+        <v>0.97728014087029158</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="0">
-        <v>0.57388680391561209</v>
+        <v>0.95999421413890462</v>
       </c>
       <c r="BG15" s="0">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.67552870053875202</v>
+        <v>0.96385672892531715</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>0.58115256058843301</v>
+        <v>0.79522877697054528</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="0">
-        <v>0.89238922716255398</v>
+        <v>0.94390154073331634</v>
       </c>
       <c r="Z16" s="0">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>0.8722151375487186</v>
+        <v>0.93798098194412582</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>0.5085778023316978</v>
+        <v>0.65753743563635747</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="0">
-        <v>0.74488176385418114</v>
+        <v>0.8182551799244564</v>
       </c>
       <c r="AG18" s="0">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="0">
-        <v>0.52396435557346421</v>
+        <v>0.61530980554265446</v>
       </c>
       <c r="BG18" s="0">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>0.51072465757574348</v>
+        <v>0.57284651316251733</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AW19" s="0">
-        <v>0.80690309454635933</v>
+        <v>0.80850721547919391</v>
       </c>
       <c r="AX19" s="0">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0.64000041723562684</v>
+        <v>0.89524480341571067</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="0">
-        <v>0.91918796101522493</v>
+        <v>0.94861598073496811</v>
       </c>
       <c r="F20" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>0.95888815536747418</v>
+        <v>0.97509081498468886</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.73478390229789592</v>
+        <v>0.83708483823233193</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="0">
-        <v>0.75070999539232952</v>
+        <v>0.78573803592635993</v>
       </c>
       <c r="I22" s="0">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="0">
-        <v>0.60583356689574952</v>
+        <v>0.78640800652118759</v>
       </c>
       <c r="I24" s="0">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="0">
-        <v>0.51741461505532704</v>
+        <v>0.61316982098857242</v>
       </c>
       <c r="T24" s="0">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>0.5309553689969071</v>
+        <v>0.76945974809239348</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="0">
-        <v>0.52950962421973657</v>
+        <v>0.80308171052958943</v>
       </c>
       <c r="AE25" s="0">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="BI25" s="0">
-        <v>0.57832589719687388</v>
+        <v>0.66070640279383919</v>
       </c>
       <c r="BJ25" s="0">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="0">
-        <v>0.51454038705067351</v>
+        <v>0.92983826492713362</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="0">
-        <v>0.71159835382057979</v>
+        <v>0.88667165187628127</v>
       </c>
       <c r="BN29" s="0">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="0">
-        <v>0.58450656025516645</v>
+        <v>0.73145654329879628</v>
       </c>
       <c r="AX30" s="0">
         <v>0</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="BK30" s="0">
-        <v>0.619611408170617</v>
+        <v>0.76902975283424091</v>
       </c>
       <c r="BL30" s="0">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>0.54838220055919962</v>
+        <v>0.58246200999440934</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>0.5020825701097531</v>
+        <v>0.61810630442279113</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6592,10 +6592,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="0">
-        <v>0.62478498218152456</v>
+        <v>0.98412462230862774</v>
       </c>
       <c r="AB32" s="0">
-        <v>0.76066072619225344</v>
+        <v>0.79778178637417907</v>
       </c>
       <c r="AC32" s="0">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>0.57723371380723376</v>
+        <v>0.82338039990784084</v>
       </c>
       <c r="BK32" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.9915976333269525</v>
+        <v>0.99998777157364493</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>0.76336961330318764</v>
+        <v>0.80527440150274576</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>0.79384018912767429</v>
+        <v>0.89444833065814389</v>
       </c>
       <c r="AX34" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.88848989972411352</v>
+        <v>0.99407903251580798</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.50963702923831544</v>
+        <v>0.88346942344725377</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.85330699486957395</v>
+        <v>0.98792455072263108</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="BA36" s="0">
-        <v>0.72392788553439158</v>
+        <v>0.72645524838013409</v>
       </c>
       <c r="BB36" s="0">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="BL36" s="0">
-        <v>0.85225154005240089</v>
+        <v>0.95049451844947686</v>
       </c>
       <c r="BM36" s="0">
         <v>0</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="0">
-        <v>0.63233203804917171</v>
+        <v>0.90254355833815869</v>
       </c>
       <c r="Z37" s="0">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>0.6373519204493624</v>
+        <v>0.70269241210194844</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="0">
-        <v>0.6501372466051335</v>
+        <v>0.9719353046757685</v>
       </c>
       <c r="AG38" s="0">
         <v>0</v>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="BO38" s="0">
-        <v>0.50905067020261741</v>
+        <v>0.88517397917783014</v>
       </c>
       <c r="BP38" s="0">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.71043727825735403</v>
+        <v>0.96068910821110198</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0.56074578390607643</v>
+        <v>0.94638445748490574</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="AP39" s="0">
-        <v>0.70852968907540326</v>
+        <v>0.89326985166844963</v>
       </c>
       <c r="AQ39" s="0">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>0.64604421179630855</v>
+        <v>0.92044758865980114</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>0.5156370788224407</v>
+        <v>0.8825044472838095</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.50160231154533963</v>
+        <v>0.69875504590098636</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.85035145218802799</v>
+        <v>0.87451091897943301</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="0">
-        <v>0.54885456726224735</v>
+        <v>0.60671277793878575</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0">
-        <v>0.52045292522092323</v>
+        <v>0.8260614173235159</v>
       </c>
       <c r="Y42" s="0">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>0.67426702094752111</v>
+        <v>0.92434739867638793</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>0.58181093879475831</v>
+        <v>0.8238832814487701</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8840,10 +8840,10 @@
         <v>0</v>
       </c>
       <c r="U43" s="0">
-        <v>0.5290032638527955</v>
+        <v>0.81582718866379023</v>
       </c>
       <c r="V43" s="0">
-        <v>0.93224072511270439</v>
+        <v>0.93733477878443816</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.67479400710353143</v>
+        <v>0.99356852774873561</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0.82909666247012359</v>
       </c>
       <c r="BH43" s="0">
-        <v>0.7666947109930502</v>
+        <v>0.94646339736044927</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>0.51124410308108237</v>
+        <v>0.7937810343788021</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0">
-        <v>0.54732805386166894</v>
+        <v>0.62139590114698318</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="AI46" s="0">
-        <v>0.72638925263387444</v>
+        <v>0.91542675872723334</v>
       </c>
       <c r="AJ46" s="0">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>0.51507145113036279</v>
+        <v>0.88698707633450768</v>
       </c>
     </row>
     <row r="47">
@@ -9733,10 +9733,10 @@
         <v>0</v>
       </c>
       <c r="AR47" s="0">
-        <v>0.75041991543721287</v>
+        <v>0.75131260659133203</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.57460575063990027</v>
+        <v>0.72533283100443391</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="BI47" s="0">
-        <v>0.78962840134932755</v>
+        <v>0.98034759600600729</v>
       </c>
       <c r="BJ47" s="0">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="0">
-        <v>0.71221871048447305</v>
+        <v>0.98514446192965788</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="0">
-        <v>0.89206322541931904</v>
+        <v>0.92023586126410595</v>
       </c>
       <c r="AA48" s="0">
         <v>0</v>
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="0">
-        <v>0.59571948779102835</v>
+        <v>0.89947881140966857</v>
       </c>
       <c r="AD48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.71103378966674757</v>
+        <v>0.89253448130519386</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="BC48" s="0">
-        <v>0.51857909487101128</v>
+        <v>0.91249390539674402</v>
       </c>
       <c r="BD48" s="0">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="0">
-        <v>0.89133978035839712</v>
+        <v>0.93309323137476907</v>
       </c>
       <c r="AJ50" s="0">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>0.74618113834317867</v>
+        <v>0.75691477251754935</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>0.59408066880310506</v>
+        <v>0.80690419510379974</v>
       </c>
       <c r="M51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.83294068010494171</v>
+        <v>0.8730918441090616</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="BE51" s="0">
-        <v>0.58955563333411709</v>
+        <v>0.89664452920017523</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.84047281634614324</v>
+        <v>0.99219006025992385</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="0">
-        <v>0.64736584646428663</v>
+        <v>0.75583789786479794</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>0.57115080114684003</v>
+        <v>0.58549294378360017</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.59655751223048648</v>
+        <v>0.70848719441461838</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11055,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="D54" s="0">
-        <v>0.51438679769064355</v>
+        <v>0.51664536969786323</v>
       </c>
       <c r="E54" s="0">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="AR54" s="0">
-        <v>0.5757802837588103</v>
+        <v>0.96988982476813457</v>
       </c>
       <c r="AS54" s="0">
         <v>0</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="0">
-        <v>0.50233920678782873</v>
+        <v>0.75937613371664514</v>
       </c>
       <c r="E55" s="0">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="AR55" s="0">
-        <v>0.72476789428020938</v>
+        <v>0.78521980153508997</v>
       </c>
       <c r="AS55" s="0">
         <v>0</v>
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>0.50006321361683648</v>
+        <v>0.63685923726533367</v>
       </c>
       <c r="O56" s="0">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="0">
-        <v>0.53928995063253193</v>
+        <v>0.74108554864288112</v>
       </c>
       <c r="AE56" s="0">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="AR57" s="0">
-        <v>0.76635229769315849</v>
+        <v>0.784323115872676</v>
       </c>
       <c r="AS57" s="0">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>0.78942693086417992</v>
+        <v>0.94110709683748683</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>0.54333368451013997</v>
+        <v>0.58138555770465805</v>
       </c>
       <c r="M58" s="0">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>0.67998512523542387</v>
+        <v>0.71390938507269364</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.76790696456247742</v>
+        <v>0.77950468875794932</v>
       </c>
       <c r="R59" s="0">
         <v>0</v>
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="0">
-        <v>0.55579373047833736</v>
+        <v>0.82909666247012359</v>
       </c>
       <c r="AR59" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.59320470550479221</v>
+        <v>0.89910006589563829</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0">
-        <v>0.60488244510875266</v>
+        <v>0.97883646887703357</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -12742,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>0.83441831373768816</v>
+        <v>0.92417314732759359</v>
       </c>
       <c r="R62" s="0">
         <v>0</v>
@@ -12802,7 +12802,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="0">
-        <v>0.675061352757931</v>
+        <v>0.95775720659787478</v>
       </c>
       <c r="AL62" s="0">
         <v>0</v>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="BM62" s="0">
-        <v>0.68803583024537063</v>
+        <v>0.74157397208799747</v>
       </c>
       <c r="BN62" s="0">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>0.526654265279072</v>
+        <v>0.92430571127730199</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>0.61695875917018683</v>
+        <v>0.90070589644027521</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.84942336352025805</v>
+        <v>0.90883256575938054</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="BP63" s="0">
-        <v>0.56282725133307365</v>
+        <v>0.86810090034713638</v>
       </c>
     </row>
     <row r="64">
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="BF64" s="0">
-        <v>0.65596445332558173</v>
+        <v>0.71393155161574484</v>
       </c>
       <c r="BG64" s="0">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AY65" s="0">
-        <v>0.64346052235130913</v>
+        <v>0.84974314965663056</v>
       </c>
       <c r="AZ65" s="0">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>0.71803914042222994</v>
+        <v>0.85966327499164885</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.70284516341003211</v>
+        <v>0.84725256141578942</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="W67" s="0">
-        <v>0.83713709147286897</v>
+        <v>0.84820380301466347</v>
       </c>
       <c r="X67" s="0">
         <v>0</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="AU67" s="0">
-        <v>0.91325767744115161</v>
+        <v>0.9374014255449441</v>
       </c>
       <c r="AV67" s="0">
         <v>0</v>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="0">
-        <v>0.6827926805416934</v>
+        <v>0.99605495968521096</v>
       </c>
       <c r="S68" s="0">
         <v>0</v>
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="BB68" s="0">
-        <v>0.51493652420474167</v>
+        <v>0.87005074290072515</v>
       </c>
       <c r="BC68" s="0">
         <v>0</v>
